--- a/r4-core-master/StructureDefinition-AustrianRepresentationOfAddress.xlsx
+++ b/r4-core-master/StructureDefinition-AustrianRepresentationOfAddress.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="188">
   <si>
     <t>Path</t>
   </si>
@@ -424,9 +424,6 @@
   </si>
   <si>
     <t>Additional information about the street address</t>
-  </si>
-  <si>
-    <t>N/A</t>
   </si>
   <si>
     <t>Address.line.value</t>
@@ -2348,7 +2345,7 @@
         <v>40</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>132</v>
+        <v>40</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>40</v>
@@ -2359,7 +2356,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2385,10 +2382,10 @@
         <v>52</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>134</v>
-      </c>
-      <c r="L15" t="s" s="2">
-        <v>135</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -2412,34 +2409,34 @@
         <v>40</v>
       </c>
       <c r="V15" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="W15" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X15" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y15" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z15" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA15" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE15" t="s" s="2">
         <v>136</v>
-      </c>
-      <c r="W15" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X15" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y15" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z15" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA15" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE15" t="s" s="2">
-        <v>137</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>41</v>
@@ -2468,11 +2465,11 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -2494,10 +2491,10 @@
         <v>52</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>140</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>141</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -2512,7 +2509,7 @@
         <v>40</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="T16" t="s" s="2">
         <v>40</v>
@@ -2548,7 +2545,7 @@
         <v>40</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>41</v>
@@ -2563,25 +2560,25 @@
         <v>79</v>
       </c>
       <c r="AJ16" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AK16" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="AK16" t="s" s="2">
+      <c r="AL16" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="AL16" t="s" s="2">
+      <c r="AM16" t="s" s="2">
         <v>145</v>
-      </c>
-      <c r="AM16" t="s" s="2">
-        <v>146</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -2603,13 +2600,13 @@
         <v>52</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -2623,7 +2620,7 @@
         <v>40</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="T17" t="s" s="2">
         <v>40</v>
@@ -2659,7 +2656,7 @@
         <v>40</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>41</v>
@@ -2674,10 +2671,10 @@
         <v>79</v>
       </c>
       <c r="AJ17" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="AK17" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="AK17" t="s" s="2">
-        <v>154</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>40</v>
@@ -2688,11 +2685,11 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
@@ -2714,10 +2711,10 @@
         <v>52</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>157</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>158</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -2768,7 +2765,7 @@
         <v>40</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>41</v>
@@ -2783,25 +2780,25 @@
         <v>79</v>
       </c>
       <c r="AJ18" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AK18" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="AK18" t="s" s="2">
+      <c r="AL18" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="AL18" t="s" s="2">
+      <c r="AM18" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="AM18" t="s" s="2">
-        <v>162</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
@@ -2823,10 +2820,10 @@
         <v>52</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>165</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>166</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -2841,7 +2838,7 @@
         <v>40</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="T19" t="s" s="2">
         <v>40</v>
@@ -2877,7 +2874,7 @@
         <v>40</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>41</v>
@@ -2892,21 +2889,21 @@
         <v>79</v>
       </c>
       <c r="AJ19" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AK19" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="AK19" t="s" s="2">
+      <c r="AL19" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="AL19" t="s" s="2">
+      <c r="AM19" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>171</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -2932,13 +2929,13 @@
         <v>52</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>175</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -2988,7 +2985,7 @@
         <v>40</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>41</v>
@@ -3003,21 +3000,21 @@
         <v>79</v>
       </c>
       <c r="AJ20" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AK20" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="AK20" t="s" s="2">
+      <c r="AL20" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="AL20" t="s" s="2">
+      <c r="AM20" t="s" s="2">
         <v>178</v>
-      </c>
-      <c r="AM20" t="s" s="2">
-        <v>179</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3040,17 +3037,17 @@
         <v>69</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="L21" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>183</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>40</v>
@@ -3063,7 +3060,7 @@
         <v>40</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="T21" t="s" s="2">
         <v>40</v>
@@ -3099,7 +3096,7 @@
         <v>40</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>41</v>
@@ -3114,13 +3111,13 @@
         <v>79</v>
       </c>
       <c r="AJ21" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="AK21" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="AK21" t="s" s="2">
+      <c r="AL21" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="AL21" t="s" s="2">
-        <v>188</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>40</v>
